--- a/Documentacion/Resultados esperados en casos de prueba.xlsx
+++ b/Documentacion/Resultados esperados en casos de prueba.xlsx
@@ -277,17 +277,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,15 +598,15 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -1514,37 +1514,37 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="14">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -1562,7 +1562,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="A2" sqref="A2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1582,15 +1582,15 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -2117,7 +2117,7 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
@@ -2747,36 +2747,36 @@
       <c r="C26" s="8">
         <v>0</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>30</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <v>200</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="11">
         <f t="shared" si="0"/>
         <v>7200</v>
       </c>
-      <c r="H26" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="13">
+      <c r="H26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="11">
         <f t="shared" si="3"/>
         <v>37200</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="11">
         <f t="shared" si="4"/>
         <v>4464</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="11">
         <f t="shared" si="5"/>
         <v>32736</v>
       </c>
